--- a/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/test-single-chart.xlsx
+++ b/nop-format/nop-ooxml/nop-ooxml-xlsx/samples/test-single-chart.xlsx
@@ -149,22 +149,29 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>填充雷达图</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>ABC</a:t>
             </a:r>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -181,13 +188,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -200,132 +213,135 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:radarChart>
-        <c:radarStyle val="filled"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ChartData!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>year2003</c:v>
-                </c:pt>
-              </c:strCache>
+              <c:f>ChartData!$C$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>ChartData!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Desktop</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tablet</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Smartphone</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Monitor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ChartData!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>600</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-72D2-4E6F-9688-333B192D50E4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ChartData!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>year2004</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="25400">
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="F3F6FB"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="204B97"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw dist="342147758" dir="2700000" blurRad="725805000">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
               <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>ChartData!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Desktop</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tablet</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Smartphone</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Monitor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>ChartData!$C$2:$C$6</c:f>
               <c:numCache>
@@ -348,16 +364,17 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-72D2-4E6F-9688-333B192D50E4}"/>
+              <c16:uniqueId val="{00000000-3DB1-41E0-A5F7-1FF8FBBE24E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>ChartData!$D$1</c:f>
@@ -370,38 +387,141 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="25400">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
+              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>ChartData!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Laptop</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Desktop</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tablet</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Smartphone</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Monitor</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>ChartData!$D$2:$D$6</c:f>
               <c:numCache>
@@ -424,31 +544,101 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-72D2-4E6F-9688-333B192D50E4}"/>
+              <c16:uniqueId val="{00000001-3DB1-41E0-A5F7-1FF8FBBE24E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1137131807"/>
-        <c:axId val="1137132287"/>
-      </c:radarChart>
-      <c:catAx>
-        <c:axId val="1137131807"/>
+        <c:axId val="1199841455"/>
+        <c:axId val="1199839535"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1199841455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>XXX</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -457,12 +647,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -473,9 +661,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -486,15 +673,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1137132287"/>
+        <c:crossAx val="1199839535"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1137132287"/>
+        <c:axId val="1199839535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -504,9 +688,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -514,14 +698,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>YYY</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN"/>
+                  <a:t>题</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -532,9 +777,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -545,9 +789,9 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1137131807"/>
+        <c:crossAx val="1199841455"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -557,31 +801,58 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:srgbClr val="595959"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:srgbClr val="262626"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
-    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -593,11 +864,6 @@
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
